--- a/reports/data/time2.xlsx
+++ b/reports/data/time2.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/development/Desktop/dewey-dist/reports/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BFA855-3DBE-9C47-9519-98D5FE804579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>batteries</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,44 +49,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,1500 +357,2061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>batteries</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>laptop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>43488</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="D2" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>43489</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.042</v>
+      </c>
+      <c r="D3" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43488</v>
-      </c>
-      <c r="C2">
-        <v>11.03</v>
-      </c>
-      <c r="D2">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43489</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="2" t="n">
+        <v>43490</v>
+      </c>
+      <c r="C4" t="n">
         <v>11.042</v>
       </c>
-      <c r="D3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43490</v>
-      </c>
-      <c r="C4">
-        <v>11.042</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>43493</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>11.08</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>43494</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>11.43</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>43495</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>11.98</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>11.67</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>11.52</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>43500</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>11.32</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>43501</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>11.11</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>43502</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>11.32</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>43503</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>11.67</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>11.87</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>43507</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11.65</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>43508</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>11.45</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>43509</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>11.78</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>11.98</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>11.98</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>12.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>12.5</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>43517</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>43517</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>12.5</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>43518</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>12.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>43522</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>12.5</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>12.5</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>43528</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>12.5</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>43530</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>12.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>12.5</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>12.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>12.5</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>12.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>12.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>12.5</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>12.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>43535</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>12.5</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>43536</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>12.5</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>43537</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>12.5</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>43538</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>12.5</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>43539</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>12.5</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>12.5</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="B43" s="2" t="n">
+        <v>43543</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D43" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2019-03-19</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>319.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>